--- a/Jogos_do_Dia/2023-01-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.66</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>4.12</v>
       </c>
       <c r="M2" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="N2" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="H3" t="n">
-        <v>1.98</v>
+        <v>2.13</v>
       </c>
       <c r="I3" t="n">
         <v>1.04</v>
@@ -763,10 +763,10 @@
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>4.36</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="N4" t="n">
-        <v>1.86</v>
+        <v>2.13</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="H5" t="n">
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
       <c r="I5" t="n">
         <v>1.07</v>
@@ -983,10 +983,10 @@
         <v>2.8</v>
       </c>
       <c r="M5" t="n">
-        <v>2.14</v>
+        <v>2.19</v>
       </c>
       <c r="N5" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.7</v>
+        <v>3.76</v>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>3.48</v>
       </c>
       <c r="H6" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="I6" t="n">
         <v>1.07</v>
@@ -1093,10 +1093,10 @@
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="N6" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.94</v>
       </c>
       <c r="H7" t="n">
-        <v>5.2</v>
+        <v>5.55</v>
       </c>
       <c r="I7" t="n">
         <v>1.07</v>
@@ -1203,10 +1203,10 @@
         <v>2.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="N7" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>3.16</v>
       </c>
       <c r="H8" t="n">
-        <v>2.44</v>
+        <v>2.53</v>
       </c>
       <c r="I8" t="n">
         <v>1.1</v>
@@ -1313,10 +1313,10 @@
         <v>2.62</v>
       </c>
       <c r="M8" t="n">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="N8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1364,13 +1364,13 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="G9" t="n">
-        <v>2.95</v>
+        <v>3.18</v>
       </c>
       <c r="H9" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="I9" t="n">
         <v>1.1</v>
@@ -1423,10 +1423,10 @@
         <v>2.62</v>
       </c>
       <c r="M9" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -1474,16 +1474,16 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.52</v>
       </c>
       <c r="H10" t="n">
-        <v>4.05</v>
+        <v>4.52</v>
       </c>
       <c r="I10" t="n">
         <v>1.08</v>
@@ -1533,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="N10" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE10" t="n">
         <v>1.88</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>3.48</v>
       </c>
       <c r="H11" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="I11" t="n">
         <v>1.08</v>
@@ -1643,10 +1643,10 @@
         <v>2.75</v>
       </c>
       <c r="M11" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="N11" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -1685,22 +1685,22 @@
         <v>2.45</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="I12" t="n">
         <v>1.12</v>
@@ -1747,10 +1747,10 @@
         <v>5.5</v>
       </c>
       <c r="K12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="L12" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="M12" t="n">
         <v>2.54</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.85</v>
+        <v>3.02</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>3.24</v>
       </c>
       <c r="H13" t="n">
-        <v>2.41</v>
+        <v>2.42</v>
       </c>
       <c r="I13" t="n">
         <v>1.08</v>
@@ -1863,7 +1863,7 @@
         <v>2.75</v>
       </c>
       <c r="M13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N13" t="n">
         <v>1.6</v>
@@ -1914,16 +1914,16 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.44</v>
+        <v>2.49</v>
       </c>
       <c r="G14" t="n">
-        <v>2.95</v>
+        <v>3.24</v>
       </c>
       <c r="H14" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="I14" t="n">
         <v>1.08</v>
@@ -1973,10 +1973,10 @@
         <v>2.75</v>
       </c>
       <c r="M14" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="N14" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2024,13 +2024,13 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>3.56</v>
       </c>
       <c r="H15" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="I15" t="n">
         <v>1.08</v>
@@ -2083,10 +2083,10 @@
         <v>2.75</v>
       </c>
       <c r="M15" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE15" t="n">
         <v>1.85</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I16" t="n">
         <v>1.07</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="G17" t="n">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="H17" t="n">
-        <v>2.9</v>
+        <v>2.73</v>
       </c>
       <c r="I17" t="n">
         <v>1.05</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="G18" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="I18" t="n">
         <v>1.06</v>
@@ -2413,7 +2413,7 @@
         <v>3.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="N18" t="n">
         <v>1.75</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.94</v>
+        <v>2.01</v>
       </c>
       <c r="G19" t="n">
         <v>3.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.86</v>
       </c>
       <c r="I19" t="n">
         <v>1.08</v>
@@ -2523,10 +2523,10 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="N19" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O19" t="n">
         <v>1.43</v>
@@ -2574,7 +2574,7 @@
         <v>2.91</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE19" t="n">
         <v>1.54</v>
@@ -2586,7 +2586,7 @@
         <v>2.3</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="20">
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.7</v>
+        <v>4.06</v>
       </c>
       <c r="G20" t="n">
-        <v>3.45</v>
+        <v>3.52</v>
       </c>
       <c r="H20" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="I20" t="n">
         <v>1.05</v>
@@ -2633,10 +2633,10 @@
         <v>3.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="N20" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="I22" t="n">
         <v>1.07</v>
@@ -2853,10 +2853,10 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -2904,13 +2904,13 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE22" t="n">
         <v>1.85</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="I23" t="n">
         <v>1.02</v>
@@ -2963,10 +2963,10 @@
         <v>4.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="N23" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="O23" t="n">
         <v>1.31</v>
@@ -3014,10 +3014,10 @@
         <v>1.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF23" t="n">
         <v>1.6</v>

--- a/Jogos_do_Dia/2023-01-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="G2" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>4.12</v>
       </c>
       <c r="M2" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="N2" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -680,10 +680,10 @@
         <v>1.74</v>
       </c>
       <c r="V2" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="X2" t="n">
         <v>1.66</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.32</v>
+        <v>3.75</v>
       </c>
       <c r="G3" t="n">
-        <v>3.52</v>
+        <v>3.65</v>
       </c>
       <c r="H3" t="n">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="I3" t="n">
         <v>1.04</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="N4" t="n">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="G5" t="n">
-        <v>3.26</v>
+        <v>3.15</v>
       </c>
       <c r="H5" t="n">
         <v>2.43</v>
@@ -983,10 +983,10 @@
         <v>2.8</v>
       </c>
       <c r="M5" t="n">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="N5" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="G6" t="n">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="I6" t="n">
         <v>1.07</v>
@@ -1093,10 +1093,10 @@
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="N6" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G7" t="n">
-        <v>3.94</v>
+        <v>3.55</v>
       </c>
       <c r="H7" t="n">
-        <v>5.55</v>
+        <v>5.75</v>
       </c>
       <c r="I7" t="n">
         <v>1.07</v>
@@ -1203,10 +1203,10 @@
         <v>2.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.97</v>
+        <v>2.32</v>
       </c>
       <c r="N7" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.89</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.16</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.53</v>
+        <v>2.35</v>
       </c>
       <c r="I8" t="n">
         <v>1.1</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.61</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
         <v>1.1</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>3.52</v>
+        <v>3.45</v>
       </c>
       <c r="H10" t="n">
-        <v>4.52</v>
+        <v>4.25</v>
       </c>
       <c r="I10" t="n">
         <v>1.08</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="G11" t="n">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
         <v>1.08</v>
@@ -1703,10 +1703,10 @@
         <v>2.21</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.38</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
         <v>1.12</v>
@@ -1753,7 +1753,7 @@
         <v>2.43</v>
       </c>
       <c r="M12" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="N12" t="n">
         <v>1.41</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.02</v>
+        <v>3.2</v>
       </c>
       <c r="G13" t="n">
-        <v>3.24</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="I13" t="n">
         <v>1.08</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.49</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
-        <v>3.24</v>
+        <v>2.95</v>
       </c>
       <c r="H14" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I14" t="n">
         <v>1.08</v>
@@ -2015,13 +2015,13 @@
         <v>3.16</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD14" t="n">
         <v>1.44</v>
@@ -2033,10 +2033,10 @@
         <v>2.2</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="15">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="G15" t="n">
-        <v>3.56</v>
+        <v>3.15</v>
       </c>
       <c r="H15" t="n">
-        <v>4.58</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
         <v>1.08</v>
@@ -2083,10 +2083,10 @@
         <v>2.75</v>
       </c>
       <c r="M15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N15" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="G16" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
         <v>1.07</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="H17" t="n">
-        <v>2.73</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
         <v>1.05</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="G18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="I18" t="n">
         <v>1.06</v>
@@ -2413,10 +2413,10 @@
         <v>3.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="O18" t="n">
         <v>1.42</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H19" t="n">
-        <v>3.86</v>
+        <v>4.25</v>
       </c>
       <c r="I19" t="n">
         <v>1.08</v>
@@ -2523,10 +2523,10 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="N19" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="O19" t="n">
         <v>1.43</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.06</v>
+        <v>3.9</v>
       </c>
       <c r="G20" t="n">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="I20" t="n">
         <v>1.05</v>
@@ -2633,10 +2633,10 @@
         <v>3.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="N20" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF21" t="n">
         <v>1.9</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="22">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>3.34</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="I22" t="n">
         <v>1.07</v>
@@ -2853,10 +2853,10 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>2.15</v>
+        <v>2.48</v>
       </c>
       <c r="N22" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="G23" t="n">
         <v>5.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="I23" t="n">
         <v>1.02</v>
